--- a/pandas.xlsx
+++ b/pandas.xlsx
@@ -434,20 +434,16 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -458,7 +454,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -469,7 +465,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
